--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3637.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3637.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.290709608173436</v>
+        <v>1.100305199623108</v>
       </c>
       <c r="B1">
-        <v>1.765869695656428</v>
+        <v>1.617159605026245</v>
       </c>
       <c r="C1">
-        <v>1.98148037456693</v>
+        <v>2.848811864852905</v>
       </c>
       <c r="D1">
-        <v>2.224203538761049</v>
+        <v>1.513748526573181</v>
       </c>
       <c r="E1">
-        <v>2.660751876313818</v>
+        <v>0.8201173543930054</v>
       </c>
     </row>
   </sheetData>
